--- a/endpoint.xlsx
+++ b/endpoint.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Route</t>
   </si>
@@ -44,60 +44,21 @@
     <t>Razorpay checkout</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>landing page</t>
-  </si>
-  <si>
-    <t>/admin</t>
-  </si>
-  <si>
-    <t>Admin Page</t>
-  </si>
-  <si>
     <t>/admin/alluser</t>
   </si>
   <si>
     <t>display all user registered</t>
   </si>
   <si>
-    <t>/login</t>
-  </si>
-  <si>
-    <t>Login authentication check</t>
-  </si>
-  <si>
-    <t>Login page</t>
-  </si>
-  <si>
-    <t>/logout</t>
-  </si>
-  <si>
     <t>logout user</t>
   </si>
   <si>
-    <t>/signup</t>
-  </si>
-  <si>
-    <t>signup page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create user </t>
-  </si>
-  <si>
     <t>/register</t>
   </si>
   <si>
-    <t>Register Page for personal details</t>
-  </si>
-  <si>
-    <t>Add Personal Details</t>
-  </si>
-  <si>
     <t>/event</t>
   </si>
   <si>
@@ -110,9 +71,6 @@
     <t>Create Participation in event</t>
   </si>
   <si>
-    <t>/event/okay</t>
-  </si>
-  <si>
     <t>event list not participated by user</t>
   </si>
   <si>
@@ -134,10 +92,34 @@
     <t>insta</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>covered in gauth</t>
+    <t>Json format</t>
+  </si>
+  <si>
+    <t>/google/login</t>
+  </si>
+  <si>
+    <t>Verifies, creates session and create user if not present</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>/google/logout</t>
+  </si>
+  <si>
+    <t>Add Personal Details - Registration complete</t>
+  </si>
+  <si>
+    <t>email covered in gauth</t>
+  </si>
+  <si>
+    <t>/event/list</t>
   </si>
 </sst>
 </file>
@@ -455,20 +437,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +461,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -490,183 +479,132 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/endpoint.xlsx
+++ b/endpoint.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Route</t>
   </si>
@@ -120,6 +120,27 @@
   </si>
   <si>
     <t>/event/list</t>
+  </si>
+  <si>
+    <t>Event fields</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>for image</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>club</t>
   </si>
 </sst>
 </file>
@@ -437,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,9 +623,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
